--- a/data/long_razon/P23_5-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_5-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-26,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-20,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-23,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-69,02; 26,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-34,35; 127,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-52,38; 22,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,98; 192,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,58; 13,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 114,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-19,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,68; 19,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 45,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 7,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 60,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,58; 5,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 37,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-20,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>101,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-49,33; 35,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 43,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 31,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,67; 174,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,59; 12,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 84,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,175 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,65; 4,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 32,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 2,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,21; 90,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,45; -4,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 48,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_5-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_5-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.3427939837760373</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1221652791827752</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1379410423776742</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.0924840515228679</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.4990757861886436</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.2061128781107365</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.1309633629855529</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.3144023744737753</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.09926386342433569</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.7632339999601905</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3369070772361937</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5147792121990381</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3865763403262705</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.03966853372071997</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.5326941100978653</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.5090561523402427</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.04837621552238233</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.4733125398789331</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.3024946989365011</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.276772366826502</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.776674760859307</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.8497561237337965</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.296092949542988</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.3934928926540932</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.3115884073613449</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.8577286638911256</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.3479992675132211</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.08068732854651756</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.05754729285403481</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1484036504972241</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.2104955963197742</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.185337843262758</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1313146818876817</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1471651664217212</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.05483370296121718</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.1408093329176008</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4077142803215948</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.355769980846999</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.450708277378684</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4510320645890676</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.109059853961535</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.3726390298236134</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3589645824432831</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1680183775061041</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.3659174653232385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.4691811892198418</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.3483512059832555</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2448512826120841</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.07898507559813851</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5773061314238911</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.1839246924173211</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.1396793685426596</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3223477589403749</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.1099792767674469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,233 +853,230 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.06317597250726235</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.09097366323714995</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6606763740833449</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.02220131817480641</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.9302459957809178</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.03516069003956301</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.01919632844456025</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.368291052501153</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.2657855781195816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3981920121438333</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4413464077241394</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.06734465929680356</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3582911355629348</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4076358425032944</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3056544097115077</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2435958285258457</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.05544559602255004</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.01513247468743641</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.7877340841656684</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.3874812999997641</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.514501879746302</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.4584083110733458</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.881530370668817</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.3476430175514449</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.4902531574359644</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.8002945617760319</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.6686872738529055</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.09705097278222363</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.02822716582309817</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1097101373343156</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.0988342119401644</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.4542025523070202</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1173670172236087</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.09795646913978065</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.198622021135884</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.009696516246060303</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3461707091052272</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2466360669353497</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2000066732811284</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2931016651612211</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.1946152084620324</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2831073646242818</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2542871197740623</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.03041070413357232</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1819246110785058</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.2168855974888406</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2827659130089622</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4523374086200827</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.1460154474552162</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.7374898746745369</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.1266215561724281</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.08873331646966753</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.4090071636615986</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.1805258788340468</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
